--- a/files/Pasta1.xlsx
+++ b/files/Pasta1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Data science\Python\Projetos do Pirão\projeto_comodoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Projeto_criminal\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="98">
   <si>
     <t>entregas</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>18:00 - 00:00</t>
-  </si>
-  <si>
-    <t>confrimado</t>
   </si>
   <si>
     <t>18:30 - 23:30</t>
@@ -4837,11 +4834,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1854008528"/>
-        <c:axId val="-1854002544"/>
+        <c:axId val="870728992"/>
+        <c:axId val="870729536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1854008528"/>
+        <c:axId val="870728992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,7 +4848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1854002544"/>
+        <c:crossAx val="870729536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4859,7 +4856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1854002544"/>
+        <c:axId val="870729536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +4867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1854008528"/>
+        <c:crossAx val="870728992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5189,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5209,34 +5206,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5244,10 +5241,10 @@
         <v>45433</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -5276,10 +5273,10 @@
         <v>45433</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -5302,10 +5299,10 @@
         <v>45433</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -5334,10 +5331,10 @@
         <v>45433</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -5360,10 +5357,10 @@
         <v>45433</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -5392,10 +5389,10 @@
         <v>45433</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -5418,10 +5415,10 @@
         <v>45433</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -5450,10 +5447,10 @@
         <v>45433</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -5476,10 +5473,10 @@
         <v>45433</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -5508,10 +5505,10 @@
         <v>45433</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -5534,10 +5531,10 @@
         <v>45433</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -5566,10 +5563,10 @@
         <v>45433</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -5592,10 +5589,10 @@
         <v>45433</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -5624,10 +5621,10 @@
         <v>45433</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
@@ -5650,10 +5647,10 @@
         <v>45433</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -5682,10 +5679,10 @@
         <v>45433</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -5708,10 +5705,10 @@
         <v>45433</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -5740,10 +5737,10 @@
         <v>45433</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -5766,10 +5763,10 @@
         <v>45433</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -5798,13 +5795,13 @@
         <v>45433</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -5830,10 +5827,10 @@
         <v>45433</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>1</v>
@@ -5856,10 +5853,10 @@
         <v>45433</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -5888,16 +5885,16 @@
         <v>45433</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -5920,10 +5917,10 @@
         <v>45433</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -5946,16 +5943,16 @@
         <v>45433</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -5978,10 +5975,10 @@
         <v>45433</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -6004,16 +6001,16 @@
         <v>45433</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -6036,10 +6033,10 @@
         <v>45433</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -6062,16 +6059,16 @@
         <v>45433</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -6094,10 +6091,10 @@
         <v>45433</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
@@ -6120,16 +6117,16 @@
         <v>45433</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -6152,10 +6149,10 @@
         <v>45433</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
@@ -6178,10 +6175,10 @@
         <v>45433</v>
       </c>
       <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -6210,10 +6207,10 @@
         <v>45433</v>
       </c>
       <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
       </c>
       <c r="F35" t="s">
         <v>1</v>
@@ -6236,10 +6233,10 @@
         <v>45433</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -6268,10 +6265,10 @@
         <v>45433</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -6294,16 +6291,16 @@
         <v>45433</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -6326,10 +6323,10 @@
         <v>45433</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>1</v>
@@ -6352,16 +6349,16 @@
         <v>45433</v>
       </c>
       <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
         <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -6384,10 +6381,10 @@
         <v>45433</v>
       </c>
       <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
         <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
@@ -6410,16 +6407,16 @@
         <v>45433</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -6442,10 +6439,10 @@
         <v>45433</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
@@ -6468,10 +6465,10 @@
         <v>45433</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -6500,10 +6497,10 @@
         <v>45433</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
@@ -6526,10 +6523,10 @@
         <v>45433</v>
       </c>
       <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
         <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -6558,10 +6555,10 @@
         <v>45433</v>
       </c>
       <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
         <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
@@ -6584,16 +6581,16 @@
         <v>45433</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -6616,10 +6613,10 @@
         <v>45433</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
@@ -6642,16 +6639,16 @@
         <v>45433</v>
       </c>
       <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
         <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -6674,10 +6671,10 @@
         <v>45433</v>
       </c>
       <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
@@ -6700,16 +6697,16 @@
         <v>45433</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -6732,10 +6729,10 @@
         <v>45433</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
@@ -6758,16 +6755,16 @@
         <v>45433</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -6790,10 +6787,10 @@
         <v>45433</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
@@ -6816,16 +6813,16 @@
         <v>45433</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -6848,10 +6845,10 @@
         <v>45433</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -6874,16 +6871,16 @@
         <v>45433</v>
       </c>
       <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
         <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -6906,10 +6903,10 @@
         <v>45433</v>
       </c>
       <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
         <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
@@ -6932,16 +6929,16 @@
         <v>45433</v>
       </c>
       <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
         <v>63</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -6964,10 +6961,10 @@
         <v>45433</v>
       </c>
       <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
         <v>63</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
@@ -6990,16 +6987,16 @@
         <v>45433</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -7022,10 +7019,10 @@
         <v>45433</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
@@ -7048,16 +7045,16 @@
         <v>45433</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -7080,10 +7077,10 @@
         <v>45433</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
         <v>1</v>
@@ -7106,16 +7103,16 @@
         <v>45433</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -7138,10 +7135,10 @@
         <v>45433</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -7164,10 +7161,10 @@
         <v>45433</v>
       </c>
       <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
         <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -7196,10 +7193,10 @@
         <v>45433</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -7228,16 +7225,16 @@
         <v>45433</v>
       </c>
       <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>73</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -7260,16 +7257,16 @@
         <v>45433</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -7292,16 +7289,16 @@
         <v>45433</v>
       </c>
       <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
         <v>75</v>
-      </c>
-      <c r="C72" t="s">
-        <v>76</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -7324,16 +7321,16 @@
         <v>45433</v>
       </c>
       <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
         <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -7356,10 +7353,10 @@
         <v>45433</v>
       </c>
       <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
         <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
       </c>
       <c r="F74" t="s">
         <v>1</v>
@@ -7382,16 +7379,16 @@
         <v>45433</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -7414,10 +7411,10 @@
         <v>45433</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -7440,10 +7437,10 @@
         <v>45433</v>
       </c>
       <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
         <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>81</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -7472,10 +7469,10 @@
         <v>45433</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -7504,10 +7501,10 @@
         <v>45432</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
@@ -7536,10 +7533,10 @@
         <v>45432</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
         <v>1</v>
@@ -7562,10 +7559,10 @@
         <v>45432</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -7594,10 +7591,10 @@
         <v>45432</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
         <v>1</v>
@@ -7620,10 +7617,10 @@
         <v>45432</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -7652,10 +7649,10 @@
         <v>45432</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
         <v>1</v>
@@ -7678,16 +7675,16 @@
         <v>45432</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -7710,10 +7707,10 @@
         <v>45432</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s">
         <v>1</v>
@@ -7736,16 +7733,16 @@
         <v>45432</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -7768,10 +7765,10 @@
         <v>45432</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s">
         <v>1</v>
@@ -7794,16 +7791,16 @@
         <v>45432</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -7826,10 +7823,10 @@
         <v>45432</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
         <v>1</v>
@@ -7852,16 +7849,16 @@
         <v>45432</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -7884,10 +7881,10 @@
         <v>45432</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
         <v>1</v>
@@ -7910,16 +7907,16 @@
         <v>45432</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -7942,10 +7939,10 @@
         <v>45432</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
         <v>1</v>
@@ -7968,16 +7965,16 @@
         <v>45432</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -8000,10 +7997,10 @@
         <v>45432</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -8026,16 +8023,16 @@
         <v>45432</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -8058,10 +8055,10 @@
         <v>45432</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -8084,16 +8081,16 @@
         <v>45432</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -8116,10 +8113,10 @@
         <v>45432</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
         <v>1</v>
@@ -8142,10 +8139,10 @@
         <v>45432</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -8174,10 +8171,10 @@
         <v>45432</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
         <v>1</v>
@@ -8200,10 +8197,10 @@
         <v>45432</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -8232,10 +8229,10 @@
         <v>45432</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
         <v>1</v>
@@ -8258,16 +8255,16 @@
         <v>45432</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -8290,10 +8287,10 @@
         <v>45432</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
         <v>1</v>
@@ -8316,16 +8313,16 @@
         <v>45432</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -8348,10 +8345,10 @@
         <v>45432</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
         <v>1</v>
@@ -8374,16 +8371,16 @@
         <v>45432</v>
       </c>
       <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
         <v>89</v>
-      </c>
-      <c r="C109" t="s">
-        <v>90</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -8406,16 +8403,16 @@
         <v>45432</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
@@ -8438,10 +8435,10 @@
         <v>45432</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F111" t="s">
         <v>1</v>
@@ -8464,10 +8461,10 @@
         <v>45432</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -8496,10 +8493,10 @@
         <v>45432</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -8528,16 +8525,16 @@
         <v>45432</v>
       </c>
       <c r="B114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" t="s">
         <v>75</v>
-      </c>
-      <c r="C114" t="s">
-        <v>76</v>
       </c>
       <c r="D114" t="s">
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -8560,10 +8557,10 @@
         <v>45432</v>
       </c>
       <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" t="s">
         <v>75</v>
-      </c>
-      <c r="C115" t="s">
-        <v>76</v>
       </c>
       <c r="F115" t="s">
         <v>1</v>
@@ -8586,16 +8583,16 @@
         <v>45432</v>
       </c>
       <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
         <v>94</v>
-      </c>
-      <c r="C116" t="s">
-        <v>95</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -8618,16 +8615,16 @@
         <v>45432</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -8650,10 +8647,10 @@
         <v>45432</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F118" t="s">
         <v>1</v>
@@ -8676,10 +8673,10 @@
         <v>45432</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -8708,10 +8705,10 @@
         <v>45432</v>
       </c>
       <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s">
         <v>80</v>
-      </c>
-      <c r="C120" t="s">
-        <v>81</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -8740,10 +8737,10 @@
         <v>45432</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -8772,10 +8769,10 @@
         <v>45432</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F122" t="s">
         <v>1</v>

--- a/files/Pasta1.xlsx
+++ b/files/Pasta1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Gráf1" sheetId="2" r:id="rId1"/>
     <sheet name="Plan1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="136">
   <si>
     <t>entregas</t>
   </si>
@@ -251,6 +251,189 @@
   <si>
     <t>18:00 - 23:59</t>
   </si>
+  <si>
+    <t>Pizzaria 2 Irmãos - Av Rene Oliva Strang</t>
+  </si>
+  <si>
+    <t>Alee dos Santos</t>
+  </si>
+  <si>
+    <t>18:30 - 23:59</t>
+  </si>
+  <si>
+    <t>Aref</t>
+  </si>
+  <si>
+    <t>Anderson Mateus</t>
+  </si>
+  <si>
+    <t>Eliston</t>
+  </si>
+  <si>
+    <t>Elias Leite</t>
+  </si>
+  <si>
+    <t>Gabriel Ventura</t>
+  </si>
+  <si>
+    <t>Capitão Prime</t>
+  </si>
+  <si>
+    <t>Italo</t>
+  </si>
+  <si>
+    <t>João Vitor Bento</t>
+  </si>
+  <si>
+    <t>Casa de Carne Portugal</t>
+  </si>
+  <si>
+    <t>Danilo Bastianini</t>
+  </si>
+  <si>
+    <t>Bruna dos Santos</t>
+  </si>
+  <si>
+    <t>Lucas Barbosa</t>
+  </si>
+  <si>
+    <t>Paulo Ricardo</t>
+  </si>
+  <si>
+    <t>Castelo das Esfihas</t>
+  </si>
+  <si>
+    <t>Felipe Muniz</t>
+  </si>
+  <si>
+    <t>Edinardo Soares</t>
+  </si>
+  <si>
+    <t>Cupim Grill</t>
+  </si>
+  <si>
+    <t>Andre Pereira</t>
+  </si>
+  <si>
+    <t>Joao Victor Souza</t>
+  </si>
+  <si>
+    <t>Junior Tavares</t>
+  </si>
+  <si>
+    <t>Franguz</t>
+  </si>
+  <si>
+    <t>Fabio Souza</t>
+  </si>
+  <si>
+    <t>Hamburgueria Genial</t>
+  </si>
+  <si>
+    <t>Bruno Trevisani</t>
+  </si>
+  <si>
+    <t>Natsumi Sushi Express</t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>Vitor Vale</t>
+  </si>
+  <si>
+    <t>Pizzaria 2 Irmão - Av. Rene Oliva Strang</t>
+  </si>
+  <si>
+    <t>Jose Paulo Batista</t>
+  </si>
+  <si>
+    <t>San Sebah</t>
+  </si>
+  <si>
+    <t>Wellington Leonardo</t>
+  </si>
+  <si>
+    <t>Sr. Shitake - Av. Café</t>
+  </si>
+  <si>
+    <t>Elvis Oliveira</t>
+  </si>
+  <si>
+    <t>Ricardo Luiz</t>
+  </si>
+  <si>
+    <t>Iuri Rohca</t>
+  </si>
+  <si>
+    <t>Jeferson luís Mendes</t>
+  </si>
+  <si>
+    <t>rejeitado</t>
+  </si>
+  <si>
+    <t>18:00 - 00:00</t>
+  </si>
+  <si>
+    <t>17:00 - 23:59</t>
+  </si>
+  <si>
+    <t>10:00 - 16:00</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30</t>
+  </si>
+  <si>
+    <t>17:30 - 22:00</t>
+  </si>
+  <si>
+    <t>18:00 - 23:00</t>
+  </si>
+  <si>
+    <t>10:00 - 17:00</t>
+  </si>
+  <si>
+    <t>João Palavizini</t>
+  </si>
+  <si>
+    <t>Cantina Falaguasta</t>
+  </si>
+  <si>
+    <t>Murillo Almeida</t>
+  </si>
+  <si>
+    <t>Yuri Prates</t>
+  </si>
+  <si>
+    <t>Victor Proença</t>
+  </si>
+  <si>
+    <t>João Victor Souza</t>
+  </si>
+  <si>
+    <t>Lucas Jesus</t>
+  </si>
+  <si>
+    <t>Daniel Klebão</t>
+  </si>
+  <si>
+    <t>Cleverson Henrique</t>
+  </si>
+  <si>
+    <t>Falaguasta - Av. Treze de Maio</t>
+  </si>
+  <si>
+    <t>Vinicius Perez de Oliveira</t>
+  </si>
+  <si>
+    <t>Skull Burger</t>
+  </si>
+  <si>
+    <t>Gabriel Daniel</t>
+  </si>
+  <si>
+    <t>Jeferson Luís Mendes</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -305,6 +488,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -4766,11 +4950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1884906512"/>
-        <c:axId val="-1884914128"/>
+        <c:axId val="1989070688"/>
+        <c:axId val="1989065792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1884906512"/>
+        <c:axId val="1989070688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,7 +4964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1884914128"/>
+        <c:crossAx val="1989065792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4788,7 +4972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1884914128"/>
+        <c:axId val="1989065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,13 +4983,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1884906512"/>
+        <c:crossAx val="1989070688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4819,7 +5004,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -4830,7 +5015,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9642593" cy="6008981"/>
+    <xdr:ext cx="9644062" cy="6012656"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -5116,16 +5301,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:J87"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -5133,7 +5318,7 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7565,121 +7750,6685 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84" s="2">
+        <v>120</v>
+      </c>
+      <c r="I84" s="2">
+        <v>105</v>
+      </c>
+      <c r="J84" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>20</v>
+      </c>
+      <c r="I85" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86" s="2">
+        <v>84</v>
+      </c>
+      <c r="I86" s="2">
+        <v>70</v>
+      </c>
+      <c r="J86" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>20</v>
+      </c>
+      <c r="I87" s="2">
+        <v>20</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>18</v>
+      </c>
+      <c r="H88" s="2">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="I88" s="2">
+        <v>139</v>
+      </c>
+      <c r="J88" s="2">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>20</v>
+      </c>
+      <c r="I89" s="2">
+        <v>20</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>16</v>
+      </c>
+      <c r="H90" s="2">
+        <v>123.2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>112</v>
+      </c>
+      <c r="J90" s="2">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>20</v>
+      </c>
+      <c r="I91" s="2">
+        <v>20</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>21</v>
+      </c>
+      <c r="H92" s="2">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="I92" s="2">
+        <v>147</v>
+      </c>
+      <c r="J92" s="2">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>20</v>
+      </c>
+      <c r="I93" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+      <c r="H94" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="I94" s="2">
+        <v>56</v>
+      </c>
+      <c r="J94" s="2">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>20</v>
+      </c>
+      <c r="I95" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A96" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>9</v>
+      </c>
+      <c r="H96" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="I96" s="2">
+        <v>63</v>
+      </c>
+      <c r="J96" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2">
+        <v>20</v>
+      </c>
+      <c r="I97" s="2">
+        <v>20</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="I98" s="2">
+        <v>84</v>
+      </c>
+      <c r="J98" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2">
+        <v>20</v>
+      </c>
+      <c r="I99" s="2">
+        <v>20</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>21</v>
+      </c>
+      <c r="H100" s="2">
+        <v>98.7</v>
+      </c>
+      <c r="I100" s="2">
+        <v>84</v>
+      </c>
+      <c r="J100" s="2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>25</v>
+      </c>
+      <c r="I101" s="2">
+        <v>25</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
+      <c r="H102" s="2">
+        <v>94</v>
+      </c>
+      <c r="I102" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2">
+        <v>25</v>
+      </c>
+      <c r="I103" s="2">
+        <v>25</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <v>90</v>
+      </c>
+      <c r="I104" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>25</v>
+      </c>
+      <c r="I105" s="2">
+        <v>25</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>16</v>
+      </c>
+      <c r="H106" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="I106" s="2">
+        <v>64</v>
+      </c>
+      <c r="J106" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
+        <v>25</v>
+      </c>
+      <c r="I107" s="2">
+        <v>25</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F108" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108" s="2">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I108" s="2">
+        <v>62</v>
+      </c>
+      <c r="J108" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109" s="2">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I109" s="2">
+        <v>62</v>
+      </c>
+      <c r="J109" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+      <c r="H110" s="2">
+        <v>84</v>
+      </c>
+      <c r="I110" s="2">
+        <v>70</v>
+      </c>
+      <c r="J110" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>30</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>9</v>
+      </c>
+      <c r="H112" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I112" s="2">
+        <v>63</v>
+      </c>
+      <c r="J112" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>25</v>
+      </c>
+      <c r="I113" s="2">
+        <v>25</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>94.4</v>
+      </c>
+      <c r="I115" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" s="2">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>97.4</v>
+      </c>
+      <c r="I116" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="J116" s="2">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="I117" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="J117" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B119" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>115</v>
+      </c>
+      <c r="F119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119" s="2">
+        <v>68</v>
+      </c>
+      <c r="I119" s="2">
+        <v>56</v>
+      </c>
+      <c r="J119" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2">
+        <v>25</v>
+      </c>
+      <c r="I120" s="2">
+        <v>25</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>115</v>
+      </c>
+      <c r="F121" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>7</v>
+      </c>
+      <c r="H121" s="2">
+        <v>93</v>
+      </c>
+      <c r="I121" s="2">
+        <v>76</v>
+      </c>
+      <c r="J121" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2">
+        <v>20</v>
+      </c>
+      <c r="I122" s="2">
+        <v>20</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2">
+        <v>20</v>
+      </c>
+      <c r="I123" s="2">
+        <v>20</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2">
+        <v>20</v>
+      </c>
+      <c r="I124" s="2">
+        <v>20</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>8</v>
+      </c>
+      <c r="H125" s="2">
+        <v>64</v>
+      </c>
+      <c r="I125" s="2">
+        <v>56</v>
+      </c>
+      <c r="J125" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B126" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2">
+        <v>20</v>
+      </c>
+      <c r="I126" s="2">
+        <v>20</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127" s="2">
+        <v>56</v>
+      </c>
+      <c r="I127" s="2">
+        <v>49</v>
+      </c>
+      <c r="J127" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B128" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2">
+        <v>20</v>
+      </c>
+      <c r="I128" s="2">
+        <v>20</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>7</v>
+      </c>
+      <c r="H129" s="2">
+        <v>56</v>
+      </c>
+      <c r="I129" s="2">
+        <v>49</v>
+      </c>
+      <c r="J129" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
+        <v>96</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2">
+        <v>20</v>
+      </c>
+      <c r="I130" s="2">
+        <v>20</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F131" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>8</v>
+      </c>
+      <c r="H131" s="2">
+        <v>64</v>
+      </c>
+      <c r="I131" s="2">
+        <v>56</v>
+      </c>
+      <c r="J131" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2">
+        <v>20</v>
+      </c>
+      <c r="I132" s="2">
+        <v>20</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+      <c r="H133" s="2">
+        <v>56</v>
+      </c>
+      <c r="I133" s="2">
+        <v>49</v>
+      </c>
+      <c r="J133" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134" t="s">
+        <v>97</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>20</v>
+      </c>
+      <c r="I134" s="2">
+        <v>20</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>74</v>
+      </c>
+      <c r="F135" t="s">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>8</v>
+      </c>
+      <c r="H135" s="2">
+        <v>68</v>
+      </c>
+      <c r="I135" s="2">
+        <v>56</v>
+      </c>
+      <c r="J135" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B136" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2">
+        <v>25</v>
+      </c>
+      <c r="I136" s="2">
+        <v>25</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" t="s">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>6</v>
+      </c>
+      <c r="H137" s="2">
+        <v>120</v>
+      </c>
+      <c r="I137" s="2">
+        <v>105</v>
+      </c>
+      <c r="J137" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>118</v>
+      </c>
+      <c r="F138" t="s">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>40</v>
+      </c>
+      <c r="I138" s="2">
+        <v>40</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2">
+        <v>70</v>
+      </c>
+      <c r="I139" s="2">
+        <v>70</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>120</v>
+      </c>
+      <c r="F140" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="I140" s="2">
+        <v>35</v>
+      </c>
+      <c r="J140" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2">
+        <v>25</v>
+      </c>
+      <c r="I141" s="2">
+        <v>25</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>116</v>
+      </c>
+      <c r="F142" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>11</v>
+      </c>
+      <c r="H142" s="2">
+        <v>88</v>
+      </c>
+      <c r="I142" s="2">
+        <v>77</v>
+      </c>
+      <c r="J142" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B143" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>20</v>
+      </c>
+      <c r="I143" s="2">
+        <v>20</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>116</v>
+      </c>
+      <c r="F144" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>18</v>
+      </c>
+      <c r="H144" s="2">
+        <v>144</v>
+      </c>
+      <c r="I144" s="2">
+        <v>126</v>
+      </c>
+      <c r="J144" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B145" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2">
+        <v>20</v>
+      </c>
+      <c r="I145" s="2">
+        <v>20</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>116</v>
+      </c>
+      <c r="F146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>19</v>
+      </c>
+      <c r="H146" s="2">
+        <v>152</v>
+      </c>
+      <c r="I146" s="2">
+        <v>133</v>
+      </c>
+      <c r="J146" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>60</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2">
+        <v>20</v>
+      </c>
+      <c r="I147" s="2">
+        <v>20</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>121</v>
+      </c>
+      <c r="F148" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>14</v>
+      </c>
+      <c r="H148" s="2">
+        <v>112</v>
+      </c>
+      <c r="I148" s="2">
+        <v>98</v>
+      </c>
+      <c r="J148" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2">
+        <v>20</v>
+      </c>
+      <c r="I149" s="2">
+        <v>20</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>116</v>
+      </c>
+      <c r="F150" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>14</v>
+      </c>
+      <c r="H150" s="2">
+        <v>112</v>
+      </c>
+      <c r="I150" s="2">
+        <v>98</v>
+      </c>
+      <c r="J150" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2">
+        <v>20</v>
+      </c>
+      <c r="I151" s="2">
+        <v>20</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>116</v>
+      </c>
+      <c r="F152" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>14</v>
+      </c>
+      <c r="H152" s="2">
+        <v>112</v>
+      </c>
+      <c r="I152" s="2">
+        <v>98</v>
+      </c>
+      <c r="J152" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2">
+        <v>20</v>
+      </c>
+      <c r="I153" s="2">
+        <v>20</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>121</v>
+      </c>
+      <c r="F154" t="s">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>11</v>
+      </c>
+      <c r="H154" s="2">
+        <v>88</v>
+      </c>
+      <c r="I154" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2">
+        <v>20</v>
+      </c>
+      <c r="I155" s="2">
+        <v>20</v>
+      </c>
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>116</v>
+      </c>
+      <c r="F156" t="s">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>13</v>
+      </c>
+      <c r="H156" s="2">
+        <v>104</v>
+      </c>
+      <c r="I156" s="2">
+        <v>91</v>
+      </c>
+      <c r="J156" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>52</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2">
+        <v>20</v>
+      </c>
+      <c r="I157" s="2">
+        <v>20</v>
+      </c>
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>18</v>
+      </c>
+      <c r="H158" s="2">
+        <v>144</v>
+      </c>
+      <c r="I158" s="2">
+        <v>126</v>
+      </c>
+      <c r="J158" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>20</v>
+      </c>
+      <c r="I159" s="2">
+        <v>20</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>13</v>
+      </c>
+      <c r="H160" s="2">
+        <v>104</v>
+      </c>
+      <c r="I160" s="2">
+        <v>91</v>
+      </c>
+      <c r="J160" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2">
+        <v>20</v>
+      </c>
+      <c r="I161" s="2">
+        <v>20</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>18</v>
+      </c>
+      <c r="H162" s="2">
+        <v>144</v>
+      </c>
+      <c r="I162" s="2">
+        <v>126</v>
+      </c>
+      <c r="J162" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>104</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2">
+        <v>20</v>
+      </c>
+      <c r="I163" s="2">
+        <v>20</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B164" t="s">
+        <v>105</v>
+      </c>
+      <c r="C164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>77</v>
+      </c>
+      <c r="F164" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>23</v>
+      </c>
+      <c r="H164" s="2">
+        <v>184</v>
+      </c>
+      <c r="I164" s="2">
+        <v>161</v>
+      </c>
+      <c r="J164" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B165" t="s">
+        <v>105</v>
+      </c>
+      <c r="C165" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2">
+        <v>20</v>
+      </c>
+      <c r="I165" s="2">
+        <v>20</v>
+      </c>
+      <c r="J165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>106</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>12</v>
+      </c>
+      <c r="H166" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="I166" s="2">
+        <v>42</v>
+      </c>
+      <c r="J166" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>106</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2">
+        <v>25</v>
+      </c>
+      <c r="I167" s="2">
+        <v>25</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>15</v>
+      </c>
+      <c r="H168" s="2">
+        <v>63</v>
+      </c>
+      <c r="I168" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="J168" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2">
+        <v>25</v>
+      </c>
+      <c r="I169" s="2">
+        <v>25</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>10</v>
+      </c>
+      <c r="H170" s="2">
+        <v>42</v>
+      </c>
+      <c r="I170" s="2">
+        <v>35</v>
+      </c>
+      <c r="J170" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2">
+        <v>25</v>
+      </c>
+      <c r="I171" s="2">
+        <v>25</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>17</v>
+      </c>
+      <c r="H172" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I172" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="J172" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>25</v>
+      </c>
+      <c r="I173" s="2">
+        <v>25</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B174" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" t="s">
+        <v>66</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>74</v>
+      </c>
+      <c r="F174" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>5</v>
+      </c>
+      <c r="H174" s="2">
+        <v>93</v>
+      </c>
+      <c r="I174" s="2">
+        <v>81</v>
+      </c>
+      <c r="J174" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B175" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" t="s">
+        <v>108</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F175" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>5</v>
+      </c>
+      <c r="H175" s="2">
+        <v>93</v>
+      </c>
+      <c r="I175" s="2">
+        <v>81</v>
+      </c>
+      <c r="J175" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B176" t="s">
+        <v>109</v>
+      </c>
+      <c r="C176" t="s">
+        <v>110</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F176" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>11</v>
+      </c>
+      <c r="H176" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="I176" s="2">
+        <v>77</v>
+      </c>
+      <c r="J176" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B177" t="s">
+        <v>109</v>
+      </c>
+      <c r="C177" t="s">
+        <v>110</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2">
+        <v>35</v>
+      </c>
+      <c r="I177" s="2">
+        <v>35</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B178" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F178" t="s">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>10</v>
+      </c>
+      <c r="H178" s="2">
+        <v>85</v>
+      </c>
+      <c r="I178" s="2">
+        <v>70</v>
+      </c>
+      <c r="J178" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2">
+        <v>35</v>
+      </c>
+      <c r="I179" s="2">
+        <v>35</v>
+      </c>
+      <c r="J179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B180" t="s">
+        <v>109</v>
+      </c>
+      <c r="C180" t="s">
+        <v>111</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F180" t="s">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+      <c r="H180" s="2">
+        <v>85</v>
+      </c>
+      <c r="I180" s="2">
+        <v>70</v>
+      </c>
+      <c r="J180" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B181" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181" t="s">
+        <v>111</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2">
+        <v>35</v>
+      </c>
+      <c r="I181" s="2">
+        <v>35</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B182" t="s">
+        <v>109</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F182" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>12</v>
+      </c>
+      <c r="H182" s="2">
+        <v>102</v>
+      </c>
+      <c r="I182" s="2">
+        <v>84</v>
+      </c>
+      <c r="J182" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2">
+        <v>35</v>
+      </c>
+      <c r="I183" s="2">
+        <v>35</v>
+      </c>
+      <c r="J183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>17</v>
+      </c>
+      <c r="H184" s="2">
+        <v>144.5</v>
+      </c>
+      <c r="I184" s="2">
+        <v>119</v>
+      </c>
+      <c r="J184" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" t="s">
+        <v>112</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2">
+        <v>35</v>
+      </c>
+      <c r="I185" s="2">
+        <v>35</v>
+      </c>
+      <c r="J185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>112</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>17</v>
+      </c>
+      <c r="H186" s="2">
+        <v>146</v>
+      </c>
+      <c r="I186" s="2">
+        <v>122</v>
+      </c>
+      <c r="J186" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2">
+        <v>35</v>
+      </c>
+      <c r="I187" s="2">
+        <v>35</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>14</v>
+      </c>
+      <c r="H188" s="2">
+        <v>119</v>
+      </c>
+      <c r="I188" s="2">
+        <v>98</v>
+      </c>
+      <c r="J188" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>35</v>
+      </c>
+      <c r="I189" s="2">
+        <v>35</v>
+      </c>
+      <c r="J189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B190" t="s">
+        <v>78</v>
+      </c>
+      <c r="C190" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>77</v>
+      </c>
+      <c r="F190" t="s">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>11</v>
+      </c>
+      <c r="H190" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="I190" s="2">
+        <v>77</v>
+      </c>
+      <c r="J190" s="2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B191" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" t="s">
+        <v>79</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2">
+        <v>20</v>
+      </c>
+      <c r="I191" s="2">
+        <v>20</v>
+      </c>
+      <c r="J191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>77</v>
+      </c>
+      <c r="F192" t="s">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>9</v>
+      </c>
+      <c r="H192" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="I192" s="2">
+        <v>76</v>
+      </c>
+      <c r="J192" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" t="s">
+        <v>80</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2">
+        <v>20</v>
+      </c>
+      <c r="I193" s="2">
+        <v>20</v>
+      </c>
+      <c r="J193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B194" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="I194" s="2">
+        <v>69</v>
+      </c>
+      <c r="J194" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>19</v>
+      </c>
+      <c r="H195" s="2">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="I195" s="2">
+        <v>133</v>
+      </c>
+      <c r="J195" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B196" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2">
+        <v>20</v>
+      </c>
+      <c r="I196" s="2">
+        <v>20</v>
+      </c>
+      <c r="J196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B197" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" t="s">
+        <v>81</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>13</v>
+      </c>
+      <c r="H197" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="I197" s="2">
+        <v>91</v>
+      </c>
+      <c r="J197" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B198" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198" t="s">
+        <v>81</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2">
+        <v>20</v>
+      </c>
+      <c r="I198" s="2">
+        <v>20</v>
+      </c>
+      <c r="J198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" t="s">
+        <v>61</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>14</v>
+      </c>
+      <c r="H199" s="2">
+        <v>110.1</v>
+      </c>
+      <c r="I199" s="2">
+        <v>101</v>
+      </c>
+      <c r="J199" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2">
+        <v>20</v>
+      </c>
+      <c r="I200" s="2">
+        <v>20</v>
+      </c>
+      <c r="J200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>13</v>
+      </c>
+      <c r="H201" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="I201" s="2">
+        <v>91</v>
+      </c>
+      <c r="J201" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2">
+        <v>20</v>
+      </c>
+      <c r="I202" s="2">
+        <v>20</v>
+      </c>
+      <c r="J202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B203" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" t="s">
+        <v>81</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>46</v>
+      </c>
+      <c r="F203" t="s">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>18</v>
+      </c>
+      <c r="H203" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I203" s="2">
+        <v>72</v>
+      </c>
+      <c r="J203" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B204" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204" t="s">
+        <v>81</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>25</v>
+      </c>
+      <c r="I204" s="2">
+        <v>25</v>
+      </c>
+      <c r="J204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B205" t="s">
+        <v>45</v>
+      </c>
+      <c r="C205" t="s">
+        <v>122</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" t="s">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>19</v>
+      </c>
+      <c r="H205" s="2">
+        <v>89.3</v>
+      </c>
+      <c r="I205" s="2">
+        <v>76</v>
+      </c>
+      <c r="J205" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" t="s">
+        <v>122</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2">
+        <v>25</v>
+      </c>
+      <c r="I206" s="2">
+        <v>25</v>
+      </c>
+      <c r="J206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" t="s">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>19</v>
+      </c>
+      <c r="H207" s="2">
+        <v>89.3</v>
+      </c>
+      <c r="I207" s="2">
+        <v>76</v>
+      </c>
+      <c r="J207" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B208" t="s">
+        <v>45</v>
+      </c>
+      <c r="C208" t="s">
+        <v>29</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>25</v>
+      </c>
+      <c r="I208" s="2">
+        <v>25</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B209" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209" t="s">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>18</v>
+      </c>
+      <c r="H209" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I209" s="2">
+        <v>72</v>
+      </c>
+      <c r="J209" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B210" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>25</v>
+      </c>
+      <c r="I210" s="2">
+        <v>25</v>
+      </c>
+      <c r="J210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B211" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" t="s">
+        <v>124</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211" s="2">
+        <v>51</v>
+      </c>
+      <c r="I211" s="2">
+        <v>42</v>
+      </c>
+      <c r="J211" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B212" t="s">
+        <v>83</v>
+      </c>
+      <c r="C212" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>74</v>
+      </c>
+      <c r="F212" t="s">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>6</v>
+      </c>
+      <c r="H212" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="I212" s="2">
+        <v>42</v>
+      </c>
+      <c r="J212" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B213" t="s">
+        <v>83</v>
+      </c>
+      <c r="C213" t="s">
+        <v>84</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2">
+        <v>20</v>
+      </c>
+      <c r="I213" s="2">
+        <v>20</v>
+      </c>
+      <c r="J213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B214" t="s">
+        <v>83</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>74</v>
+      </c>
+      <c r="F214" t="s">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>8</v>
+      </c>
+      <c r="H214" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="I214" s="2">
+        <v>56</v>
+      </c>
+      <c r="J214" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B215" t="s">
+        <v>83</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2">
+        <v>20</v>
+      </c>
+      <c r="I215" s="2">
+        <v>20</v>
+      </c>
+      <c r="J215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B216" t="s">
+        <v>86</v>
+      </c>
+      <c r="C216" t="s">
+        <v>87</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" t="s">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>11</v>
+      </c>
+      <c r="H216" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="I216" s="2">
+        <v>77</v>
+      </c>
+      <c r="J216" s="2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C217" t="s">
+        <v>87</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2">
+        <v>30</v>
+      </c>
+      <c r="I217" s="2">
+        <v>30</v>
+      </c>
+      <c r="J217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B218" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" t="s">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="I218" s="2">
+        <v>116</v>
+      </c>
+      <c r="J218" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B219" t="s">
+        <v>63</v>
+      </c>
+      <c r="C219" t="s">
+        <v>65</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" t="s">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2">
+        <v>181.4</v>
+      </c>
+      <c r="I219" s="2">
+        <v>154.5</v>
+      </c>
+      <c r="J219" s="2">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B220" t="s">
+        <v>91</v>
+      </c>
+      <c r="C220" t="s">
+        <v>92</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>115</v>
+      </c>
+      <c r="F220" t="s">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>9</v>
+      </c>
+      <c r="H220" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I220" s="2">
+        <v>63</v>
+      </c>
+      <c r="J220" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B221" t="s">
+        <v>91</v>
+      </c>
+      <c r="C221" t="s">
+        <v>92</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2">
+        <v>25</v>
+      </c>
+      <c r="I221" s="2">
+        <v>25</v>
+      </c>
+      <c r="J221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B222" t="s">
+        <v>91</v>
+      </c>
+      <c r="C222" t="s">
+        <v>125</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" t="s">
+        <v>115</v>
+      </c>
+      <c r="F222" t="s">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>8</v>
+      </c>
+      <c r="H222" s="2">
+        <v>68</v>
+      </c>
+      <c r="I222" s="2">
+        <v>56</v>
+      </c>
+      <c r="J222" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B223" t="s">
+        <v>91</v>
+      </c>
+      <c r="C223" t="s">
+        <v>125</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2">
+        <v>25</v>
+      </c>
+      <c r="I223" s="2">
+        <v>25</v>
+      </c>
+      <c r="J223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2">
+        <v>20</v>
+      </c>
+      <c r="I224" s="2">
+        <v>20</v>
+      </c>
+      <c r="J224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>3</v>
+      </c>
+      <c r="F225" t="s">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>13</v>
+      </c>
+      <c r="H225" s="2">
+        <v>104</v>
+      </c>
+      <c r="I225" s="2">
+        <v>91</v>
+      </c>
+      <c r="J225" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="s">
+        <v>80</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2">
+        <v>20</v>
+      </c>
+      <c r="I226" s="2">
+        <v>20</v>
+      </c>
+      <c r="J226" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>3</v>
+      </c>
+      <c r="F227" t="s">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>12</v>
+      </c>
+      <c r="H227" s="2">
+        <v>96</v>
+      </c>
+      <c r="I227" s="2">
+        <v>84</v>
+      </c>
+      <c r="J227" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228" t="s">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>10</v>
+      </c>
+      <c r="H228" s="2">
+        <v>80</v>
+      </c>
+      <c r="I228" s="2">
+        <v>70</v>
+      </c>
+      <c r="J228" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>37</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2">
+        <v>20</v>
+      </c>
+      <c r="I229" s="2">
+        <v>20</v>
+      </c>
+      <c r="J229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>37</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" t="s">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>8</v>
+      </c>
+      <c r="H230" s="2">
+        <v>64</v>
+      </c>
+      <c r="I230" s="2">
+        <v>56</v>
+      </c>
+      <c r="J230" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B231" t="s">
+        <v>94</v>
+      </c>
+      <c r="C231" t="s">
+        <v>126</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>74</v>
+      </c>
+      <c r="F231" t="s">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>8</v>
+      </c>
+      <c r="H231" s="2">
+        <v>64</v>
+      </c>
+      <c r="I231" s="2">
+        <v>56</v>
+      </c>
+      <c r="J231" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B232" t="s">
+        <v>94</v>
+      </c>
+      <c r="C232" t="s">
+        <v>126</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2">
+        <v>20</v>
+      </c>
+      <c r="I232" s="2">
+        <v>20</v>
+      </c>
+      <c r="J232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B233" t="s">
+        <v>94</v>
+      </c>
+      <c r="C233" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>74</v>
+      </c>
+      <c r="F233" t="s">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>6</v>
+      </c>
+      <c r="H233" s="2">
+        <v>48</v>
+      </c>
+      <c r="I233" s="2">
+        <v>42</v>
+      </c>
+      <c r="J233" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B234" t="s">
+        <v>94</v>
+      </c>
+      <c r="C234" t="s">
+        <v>95</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2">
+        <v>20</v>
+      </c>
+      <c r="I234" s="2">
+        <v>20</v>
+      </c>
+      <c r="J234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B235" t="s">
+        <v>94</v>
+      </c>
+      <c r="C235" t="s">
+        <v>60</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" t="s">
+        <v>74</v>
+      </c>
+      <c r="F235" t="s">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>11</v>
+      </c>
+      <c r="H235" s="2">
+        <v>88</v>
+      </c>
+      <c r="I235" s="2">
+        <v>77</v>
+      </c>
+      <c r="J235" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B236" t="s">
+        <v>94</v>
+      </c>
+      <c r="C236" t="s">
+        <v>60</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2">
+        <v>20</v>
+      </c>
+      <c r="I236" s="2">
+        <v>20</v>
+      </c>
+      <c r="J236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B237" t="s">
+        <v>94</v>
+      </c>
+      <c r="C237" t="s">
+        <v>127</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>117</v>
+      </c>
+      <c r="F237" t="s">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>7</v>
+      </c>
+      <c r="H237" s="2">
+        <v>56</v>
+      </c>
+      <c r="I237" s="2">
+        <v>49</v>
+      </c>
+      <c r="J237" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B238" t="s">
+        <v>94</v>
+      </c>
+      <c r="C238" t="s">
+        <v>127</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2">
+        <v>20</v>
+      </c>
+      <c r="I238" s="2">
+        <v>20</v>
+      </c>
+      <c r="J238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>94</v>
+      </c>
+      <c r="C239" t="s">
+        <v>128</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>117</v>
+      </c>
+      <c r="F239" t="s">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>10</v>
+      </c>
+      <c r="H239" s="2">
+        <v>80</v>
+      </c>
+      <c r="I239" s="2">
+        <v>70</v>
+      </c>
+      <c r="J239" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B240" t="s">
+        <v>94</v>
+      </c>
+      <c r="C240" t="s">
+        <v>128</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2">
+        <v>20</v>
+      </c>
+      <c r="I240" s="2">
+        <v>20</v>
+      </c>
+      <c r="J240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>94</v>
+      </c>
+      <c r="C241" t="s">
+        <v>124</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>117</v>
+      </c>
+      <c r="F241" t="s">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+      <c r="H241" s="2">
+        <v>40</v>
+      </c>
+      <c r="I241" s="2">
+        <v>35</v>
+      </c>
+      <c r="J241" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B242" t="s">
+        <v>94</v>
+      </c>
+      <c r="C242" t="s">
+        <v>124</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2">
+        <v>20</v>
+      </c>
+      <c r="I242" s="2">
+        <v>20</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B243" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" t="s">
+        <v>130</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>77</v>
+      </c>
+      <c r="F243" t="s">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>4</v>
+      </c>
+      <c r="H243" s="2">
+        <v>0</v>
+      </c>
+      <c r="I243" s="2">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B244" t="s">
+        <v>129</v>
+      </c>
+      <c r="C244" t="s">
+        <v>130</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2">
+        <v>25</v>
+      </c>
+      <c r="I244" s="2">
+        <v>20</v>
+      </c>
+      <c r="J244" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>40</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" t="s">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>8</v>
+      </c>
+      <c r="H245" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="I245" s="2">
+        <v>76</v>
+      </c>
+      <c r="J245" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B246" t="s">
+        <v>131</v>
+      </c>
+      <c r="C246" t="s">
+        <v>88</v>
+      </c>
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246" t="s">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>14</v>
+      </c>
+      <c r="H246" s="2">
+        <v>119</v>
+      </c>
+      <c r="I246" s="2">
+        <v>98</v>
+      </c>
+      <c r="J246" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B247" t="s">
+        <v>131</v>
+      </c>
+      <c r="C247" t="s">
+        <v>88</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2">
+        <v>25</v>
+      </c>
+      <c r="I247" s="2">
+        <v>25</v>
+      </c>
+      <c r="J247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B248" t="s">
+        <v>131</v>
+      </c>
+      <c r="C248" t="s">
+        <v>132</v>
+      </c>
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" t="s">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>12</v>
+      </c>
+      <c r="H248" s="2">
+        <v>102</v>
+      </c>
+      <c r="I248" s="2">
+        <v>84</v>
+      </c>
+      <c r="J248" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B249" t="s">
+        <v>131</v>
+      </c>
+      <c r="C249" t="s">
+        <v>132</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2">
+        <v>25</v>
+      </c>
+      <c r="I249" s="2">
+        <v>25</v>
+      </c>
+      <c r="J249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B250" t="s">
+        <v>71</v>
+      </c>
+      <c r="C250" t="s">
+        <v>127</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" t="s">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>10</v>
+      </c>
+      <c r="H250" s="2">
+        <v>85</v>
+      </c>
+      <c r="I250" s="2">
+        <v>70</v>
+      </c>
+      <c r="J250" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B251" t="s">
+        <v>71</v>
+      </c>
+      <c r="C251" t="s">
+        <v>127</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2">
+        <v>25</v>
+      </c>
+      <c r="I251" s="2">
+        <v>25</v>
+      </c>
+      <c r="J251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B252" t="s">
+        <v>98</v>
+      </c>
+      <c r="C252" t="s">
+        <v>99</v>
+      </c>
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" t="s">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>10</v>
+      </c>
+      <c r="H252" s="2">
+        <v>85</v>
+      </c>
+      <c r="I252" s="2">
+        <v>70</v>
+      </c>
+      <c r="J252" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B253" t="s">
+        <v>98</v>
+      </c>
+      <c r="C253" t="s">
+        <v>99</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2">
+        <v>35</v>
+      </c>
+      <c r="I253" s="2">
+        <v>35</v>
+      </c>
+      <c r="J253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B254" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" t="s">
+        <v>55</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>118</v>
+      </c>
+      <c r="F254" t="s">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2">
+        <v>40</v>
+      </c>
+      <c r="I254" s="2">
+        <v>40</v>
+      </c>
+      <c r="J254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B255" t="s">
+        <v>100</v>
+      </c>
+      <c r="C255" t="s">
+        <v>43</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>119</v>
+      </c>
+      <c r="F255" t="s">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2">
+        <v>70</v>
+      </c>
+      <c r="I255" s="2">
+        <v>70</v>
+      </c>
+      <c r="J255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B256" t="s">
+        <v>102</v>
+      </c>
+      <c r="C256" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2">
+        <v>25</v>
+      </c>
+      <c r="I256" s="2">
+        <v>25</v>
+      </c>
+      <c r="J256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B257" t="s">
+        <v>102</v>
+      </c>
+      <c r="C257" t="s">
+        <v>122</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>120</v>
+      </c>
+      <c r="F257" t="s">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
+      <c r="H257" s="2">
+        <v>34</v>
+      </c>
+      <c r="I257" s="2">
+        <v>28</v>
+      </c>
+      <c r="J257" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B258" t="s">
+        <v>50</v>
+      </c>
+      <c r="C258" t="s">
+        <v>55</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" t="s">
+        <v>116</v>
+      </c>
+      <c r="F258" t="s">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>10</v>
+      </c>
+      <c r="H258" s="2">
+        <v>80</v>
+      </c>
+      <c r="I258" s="2">
+        <v>70</v>
+      </c>
+      <c r="J258" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B259" t="s">
+        <v>50</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2">
+        <v>20</v>
+      </c>
+      <c r="I259" s="2">
+        <v>20</v>
+      </c>
+      <c r="J259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B260" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" t="s">
+        <v>42</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" t="s">
+        <v>116</v>
+      </c>
+      <c r="F260" t="s">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>14</v>
+      </c>
+      <c r="H260" s="2">
+        <v>112</v>
+      </c>
+      <c r="I260" s="2">
+        <v>98</v>
+      </c>
+      <c r="J260" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B261" t="s">
+        <v>50</v>
+      </c>
+      <c r="C261" t="s">
+        <v>42</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2">
+        <v>20</v>
+      </c>
+      <c r="I261" s="2">
+        <v>20</v>
+      </c>
+      <c r="J261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B262" t="s">
+        <v>50</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>121</v>
+      </c>
+      <c r="F262" t="s">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>13</v>
+      </c>
+      <c r="H262" s="2">
+        <v>104</v>
+      </c>
+      <c r="I262" s="2">
+        <v>91</v>
+      </c>
+      <c r="J262" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B263" t="s">
+        <v>50</v>
+      </c>
+      <c r="C263" t="s">
+        <v>51</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2">
+        <v>20</v>
+      </c>
+      <c r="I263" s="2">
+        <v>20</v>
+      </c>
+      <c r="J263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B264" t="s">
+        <v>50</v>
+      </c>
+      <c r="C264" t="s">
+        <v>51</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" t="s">
+        <v>116</v>
+      </c>
+      <c r="F264" t="s">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>11</v>
+      </c>
+      <c r="H264" s="2">
+        <v>88</v>
+      </c>
+      <c r="I264" s="2">
+        <v>77</v>
+      </c>
+      <c r="J264" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B265" t="s">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>51</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2">
+        <v>20</v>
+      </c>
+      <c r="I265" s="2">
+        <v>20</v>
+      </c>
+      <c r="J265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>116</v>
+      </c>
+      <c r="F266" t="s">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>11</v>
+      </c>
+      <c r="H266" s="2">
+        <v>88</v>
+      </c>
+      <c r="I266" s="2">
+        <v>77</v>
+      </c>
+      <c r="J266" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B267" t="s">
+        <v>50</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2">
+        <v>20</v>
+      </c>
+      <c r="I267" s="2">
+        <v>20</v>
+      </c>
+      <c r="J267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B268" t="s">
+        <v>50</v>
+      </c>
+      <c r="C268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" t="s">
+        <v>116</v>
+      </c>
+      <c r="F268" t="s">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>11</v>
+      </c>
+      <c r="H268" s="2">
+        <v>88</v>
+      </c>
+      <c r="I268" s="2">
+        <v>77</v>
+      </c>
+      <c r="J268" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B269" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" t="s">
+        <v>36</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2">
+        <v>20</v>
+      </c>
+      <c r="I269" s="2">
+        <v>20</v>
+      </c>
+      <c r="J269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B270" t="s">
+        <v>50</v>
+      </c>
+      <c r="C270" t="s">
+        <v>52</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" t="s">
+        <v>121</v>
+      </c>
+      <c r="F270" t="s">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>12</v>
+      </c>
+      <c r="H270" s="2">
+        <v>96</v>
+      </c>
+      <c r="I270" s="2">
+        <v>84</v>
+      </c>
+      <c r="J270" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B271" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" t="s">
+        <v>52</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2">
+        <v>20</v>
+      </c>
+      <c r="I271" s="2">
+        <v>20</v>
+      </c>
+      <c r="J271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B272" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" t="s">
+        <v>52</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272" t="s">
+        <v>116</v>
+      </c>
+      <c r="F272" t="s">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>10</v>
+      </c>
+      <c r="H272" s="2">
+        <v>80</v>
+      </c>
+      <c r="I272" s="2">
+        <v>70</v>
+      </c>
+      <c r="J272" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B273" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" t="s">
+        <v>52</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2">
+        <v>20</v>
+      </c>
+      <c r="I273" s="2">
+        <v>20</v>
+      </c>
+      <c r="J273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B274" t="s">
+        <v>38</v>
+      </c>
+      <c r="C274" t="s">
+        <v>39</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" t="s">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>9</v>
+      </c>
+      <c r="H274" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I274" s="2">
+        <v>63</v>
+      </c>
+      <c r="J274" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B275" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275" t="s">
+        <v>39</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2">
+        <v>20</v>
+      </c>
+      <c r="I275" s="2">
+        <v>20</v>
+      </c>
+      <c r="J275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>85</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>14</v>
+      </c>
+      <c r="H276" s="2">
+        <v>112</v>
+      </c>
+      <c r="I276" s="2">
+        <v>98</v>
+      </c>
+      <c r="J276" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>85</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2">
+        <v>20</v>
+      </c>
+      <c r="I277" s="2">
+        <v>20</v>
+      </c>
+      <c r="J277" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>103</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" t="s">
+        <v>2</v>
+      </c>
+      <c r="F278" t="s">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>16</v>
+      </c>
+      <c r="H278" s="2">
+        <v>128</v>
+      </c>
+      <c r="I278" s="2">
+        <v>112</v>
+      </c>
+      <c r="J278" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>103</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2">
+        <v>20</v>
+      </c>
+      <c r="I279" s="2">
+        <v>20</v>
+      </c>
+      <c r="J279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>48</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" t="s">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>16</v>
+      </c>
+      <c r="H280" s="2">
+        <v>128</v>
+      </c>
+      <c r="I280" s="2">
+        <v>112</v>
+      </c>
+      <c r="J280" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>48</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2">
+        <v>20</v>
+      </c>
+      <c r="I281" s="2">
+        <v>20</v>
+      </c>
+      <c r="J281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B282" t="s">
+        <v>75</v>
+      </c>
+      <c r="C282" t="s">
+        <v>76</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" t="s">
+        <v>77</v>
+      </c>
+      <c r="F282" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>16</v>
+      </c>
+      <c r="H282" s="2">
+        <v>128</v>
+      </c>
+      <c r="I282" s="2">
+        <v>112</v>
+      </c>
+      <c r="J282" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B283" t="s">
+        <v>75</v>
+      </c>
+      <c r="C283" t="s">
+        <v>76</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2">
+        <v>20</v>
+      </c>
+      <c r="I283" s="2">
+        <v>20</v>
+      </c>
+      <c r="J283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B284" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" t="s">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>13</v>
+      </c>
+      <c r="H284" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I284" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="J284" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2">
+        <v>25</v>
+      </c>
+      <c r="I285" s="2">
+        <v>25</v>
+      </c>
+      <c r="J285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" t="s">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>13</v>
+      </c>
+      <c r="H286" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I286" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="J286" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>36</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2">
+        <v>25</v>
+      </c>
+      <c r="I287" s="2">
+        <v>25</v>
+      </c>
+      <c r="J287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B288" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>37</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+      <c r="E288" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288" t="s">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>13</v>
+      </c>
+      <c r="H288" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I288" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="J288" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>37</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289" s="2">
+        <v>25</v>
+      </c>
+      <c r="I289" s="2">
+        <v>25</v>
+      </c>
+      <c r="J289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B290" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" t="s">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>13</v>
+      </c>
+      <c r="H290" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I290" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="J290" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B291" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2">
+        <v>25</v>
+      </c>
+      <c r="I291" s="2">
+        <v>25</v>
+      </c>
+      <c r="J291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B292" t="s">
+        <v>107</v>
+      </c>
+      <c r="C292" t="s">
+        <v>66</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" t="s">
+        <v>74</v>
+      </c>
+      <c r="F292" t="s">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>6</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0</v>
+      </c>
+      <c r="I292" s="2">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B293" t="s">
+        <v>107</v>
+      </c>
+      <c r="C293" t="s">
+        <v>66</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2">
+        <v>25</v>
+      </c>
+      <c r="I293" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B294" t="s">
+        <v>107</v>
+      </c>
+      <c r="C294" t="s">
+        <v>108</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>74</v>
+      </c>
+      <c r="F294" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>7</v>
+      </c>
+      <c r="H294" s="2">
+        <v>0</v>
+      </c>
+      <c r="I294" s="2">
+        <v>0</v>
+      </c>
+      <c r="J294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B295" t="s">
+        <v>107</v>
+      </c>
+      <c r="C295" t="s">
+        <v>108</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295" s="2">
+        <v>25</v>
+      </c>
+      <c r="I295" s="2">
+        <v>25</v>
+      </c>
+      <c r="J295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B296" t="s">
+        <v>133</v>
+      </c>
+      <c r="C296" t="s">
+        <v>134</v>
+      </c>
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" t="s">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>6</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0</v>
+      </c>
+      <c r="I296" s="2">
+        <v>0</v>
+      </c>
+      <c r="J296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B297" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297" t="s">
+        <v>134</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297" s="2">
+        <v>25</v>
+      </c>
+      <c r="I297" s="2">
+        <v>25</v>
+      </c>
+      <c r="J297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B298" t="s">
+        <v>109</v>
+      </c>
+      <c r="C298" t="s">
+        <v>110</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>74</v>
+      </c>
+      <c r="F298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>10</v>
+      </c>
+      <c r="H298" s="2">
+        <v>85</v>
+      </c>
+      <c r="I298" s="2">
+        <v>70</v>
+      </c>
+      <c r="J298" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B299" t="s">
+        <v>109</v>
+      </c>
+      <c r="C299" t="s">
+        <v>110</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299" s="2">
+        <v>35</v>
+      </c>
+      <c r="I299" s="2">
+        <v>35</v>
+      </c>
+      <c r="J299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B300" t="s">
+        <v>109</v>
+      </c>
+      <c r="C300" t="s">
+        <v>29</v>
+      </c>
+      <c r="D300" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" t="s">
+        <v>74</v>
+      </c>
+      <c r="F300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>7</v>
+      </c>
+      <c r="H300" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="I300" s="2">
+        <v>49</v>
+      </c>
+      <c r="J300" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B301" t="s">
+        <v>109</v>
+      </c>
+      <c r="C301" t="s">
+        <v>29</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2">
+        <v>35</v>
+      </c>
+      <c r="I301" s="2">
+        <v>35</v>
+      </c>
+      <c r="J301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B302" t="s">
+        <v>109</v>
+      </c>
+      <c r="C302" t="s">
+        <v>90</v>
+      </c>
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>74</v>
+      </c>
+      <c r="F302" t="s">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>9</v>
+      </c>
+      <c r="H302" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I302" s="2">
+        <v>63</v>
+      </c>
+      <c r="J302" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B303" t="s">
+        <v>109</v>
+      </c>
+      <c r="C303" t="s">
+        <v>90</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2">
+        <v>35</v>
+      </c>
+      <c r="I303" s="2">
+        <v>35</v>
+      </c>
+      <c r="J303" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B304" t="s">
+        <v>109</v>
+      </c>
+      <c r="C304" t="s">
+        <v>111</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" t="s">
+        <v>74</v>
+      </c>
+      <c r="F304" t="s">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>9</v>
+      </c>
+      <c r="H304" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I304" s="2">
+        <v>63</v>
+      </c>
+      <c r="J304" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B305" t="s">
+        <v>109</v>
+      </c>
+      <c r="C305" t="s">
+        <v>111</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305" s="2">
+        <v>35</v>
+      </c>
+      <c r="I305" s="2">
+        <v>35</v>
+      </c>
+      <c r="J305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B306" t="s">
+        <v>30</v>
+      </c>
+      <c r="C306" t="s">
+        <v>31</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2">
+        <v>35</v>
+      </c>
+      <c r="I306" s="2">
+        <v>35</v>
+      </c>
+      <c r="J306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B307" t="s">
+        <v>30</v>
+      </c>
+      <c r="C307" t="s">
+        <v>31</v>
+      </c>
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+      <c r="E307" t="s">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>17</v>
+      </c>
+      <c r="H307" s="2">
+        <v>146</v>
+      </c>
+      <c r="I307" s="2">
+        <v>122</v>
+      </c>
+      <c r="J307" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B308" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308" t="s">
+        <v>135</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2">
+        <v>35</v>
+      </c>
+      <c r="I308" s="2">
+        <v>35</v>
+      </c>
+      <c r="J308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B309" t="s">
+        <v>30</v>
+      </c>
+      <c r="C309" t="s">
+        <v>135</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" t="s">
+        <v>18</v>
+      </c>
+      <c r="F309" t="s">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>18</v>
+      </c>
+      <c r="H309" s="2">
+        <v>153</v>
+      </c>
+      <c r="I309" s="2">
+        <v>126</v>
+      </c>
+      <c r="J309" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B310" t="s">
+        <v>30</v>
+      </c>
+      <c r="C310" t="s">
+        <v>33</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310" s="2">
+        <v>35</v>
+      </c>
+      <c r="I310" s="2">
+        <v>35</v>
+      </c>
+      <c r="J310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B311" t="s">
+        <v>30</v>
+      </c>
+      <c r="C311" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+      <c r="E311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" t="s">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>14</v>
+      </c>
+      <c r="H311" s="2">
+        <v>119</v>
+      </c>
+      <c r="I311" s="2">
+        <v>98</v>
+      </c>
+      <c r="J311" s="2">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/files/Pasta1.xlsx
+++ b/files/Pasta1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="240">
   <si>
     <t>entregas</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Guilher Gomes</t>
   </si>
   <si>
-    <t>Yu-ya</t>
-  </si>
-  <si>
     <t>André Corradi</t>
   </si>
   <si>
@@ -5265,11 +5262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1336748976"/>
-        <c:axId val="1336750608"/>
+        <c:axId val="829204512"/>
+        <c:axId val="829205600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1336748976"/>
+        <c:axId val="829204512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1336750608"/>
+        <c:crossAx val="829205600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5287,7 +5284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1336750608"/>
+        <c:axId val="829205600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,7 +5295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1336748976"/>
+        <c:crossAx val="829204512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5617,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1774" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1816" sqref="A1816"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1031" sqref="B1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35939,10 +35936,10 @@
         <v>45481</v>
       </c>
       <c r="B1034" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1034" t="s">
         <v>204</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>205</v>
       </c>
       <c r="D1034" s="4" t="s">
         <v>5</v>
@@ -35971,10 +35968,10 @@
         <v>45481</v>
       </c>
       <c r="B1035" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1035" t="s">
         <v>204</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>205</v>
       </c>
       <c r="F1035" t="s">
         <v>1</v>
@@ -37355,7 +37352,7 @@
         <v>98</v>
       </c>
       <c r="C1082" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1082" s="4" t="s">
         <v>5</v>
@@ -37387,7 +37384,7 @@
         <v>98</v>
       </c>
       <c r="C1083" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1083" t="s">
         <v>1</v>
@@ -37793,7 +37790,7 @@
         <v>50</v>
       </c>
       <c r="C1097" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1097" t="s">
         <v>1</v>
@@ -38167,7 +38164,7 @@
         <v>12</v>
       </c>
       <c r="C1110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1110" s="4" t="s">
         <v>5</v>
@@ -38489,7 +38486,7 @@
         <v>14</v>
       </c>
       <c r="C1121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F1121" t="s">
         <v>1</v>
@@ -39191,7 +39188,7 @@
         <v>78</v>
       </c>
       <c r="C1145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1145" s="4" t="s">
         <v>5</v>
@@ -42226,7 +42223,7 @@
         <v>30</v>
       </c>
       <c r="C1248" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1248" s="4" t="s">
         <v>5</v>
@@ -45728,7 +45725,7 @@
         <v>41</v>
       </c>
       <c r="C1367" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1367" s="4" t="s">
         <v>6</v>
@@ -45760,7 +45757,7 @@
         <v>41</v>
       </c>
       <c r="C1368" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F1368" t="s">
         <v>1</v>
@@ -47208,7 +47205,7 @@
         <v>94</v>
       </c>
       <c r="C1417" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1417" t="s">
         <v>1</v>
@@ -47234,7 +47231,7 @@
         <v>94</v>
       </c>
       <c r="C1418" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1418" s="4" t="s">
         <v>5</v>
@@ -47594,7 +47591,7 @@
         <v>68</v>
       </c>
       <c r="C1430" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1430" s="4" t="s">
         <v>5</v>
@@ -47626,7 +47623,7 @@
         <v>68</v>
       </c>
       <c r="C1431" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F1431" t="s">
         <v>1</v>
@@ -49404,7 +49401,7 @@
         <v>107</v>
       </c>
       <c r="C1492" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1492" s="4" t="s">
         <v>5</v>
@@ -50147,7 +50144,7 @@
         <v>18</v>
       </c>
       <c r="F1517" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1517">
         <v>14</v>
@@ -50257,7 +50254,7 @@
         <v>166</v>
       </c>
       <c r="D1521" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1521" t="s">
         <v>18</v>
@@ -50370,10 +50367,10 @@
         <v>78</v>
       </c>
       <c r="C1525" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1525" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1525" t="s">
         <v>77</v>
@@ -50556,7 +50553,7 @@
         <v>41</v>
       </c>
       <c r="C1531" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1531" s="4" t="s">
         <v>5</v>
@@ -50875,10 +50872,10 @@
         <v>45486</v>
       </c>
       <c r="B1542" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1542" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1542" s="4" t="s">
         <v>6</v>
@@ -50907,10 +50904,10 @@
         <v>45486</v>
       </c>
       <c r="B1543" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1543" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1543" t="s">
         <v>1</v>
@@ -50933,7 +50930,7 @@
         <v>45486</v>
       </c>
       <c r="B1544" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1544" t="s">
         <v>185</v>
@@ -50965,7 +50962,7 @@
         <v>45486</v>
       </c>
       <c r="B1545" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1545" t="s">
         <v>185</v>
@@ -51668,7 +51665,7 @@
         <v>15</v>
       </c>
       <c r="C1568" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1568" s="4" t="s">
         <v>5</v>
@@ -52312,7 +52309,7 @@
         <v>94</v>
       </c>
       <c r="C1590" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1590" s="4" t="s">
         <v>6</v>
@@ -52402,7 +52399,7 @@
         <v>94</v>
       </c>
       <c r="C1593" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1593" t="s">
         <v>1</v>
@@ -52428,7 +52425,7 @@
         <v>94</v>
       </c>
       <c r="C1594" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1594" s="4" t="s">
         <v>6</v>
@@ -52460,7 +52457,7 @@
         <v>94</v>
       </c>
       <c r="C1595" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1595" t="s">
         <v>1</v>
@@ -52486,7 +52483,7 @@
         <v>94</v>
       </c>
       <c r="C1596" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1596" s="4" t="s">
         <v>5</v>
@@ -52582,7 +52579,7 @@
         <v>129</v>
       </c>
       <c r="C1599" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1599" s="4" t="s">
         <v>6</v>
@@ -52675,7 +52672,7 @@
         <v>45486</v>
       </c>
       <c r="B1602" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1602" t="s">
         <v>174</v>
@@ -52684,7 +52681,7 @@
         <v>6</v>
       </c>
       <c r="E1602" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1602" t="s">
         <v>0</v>
@@ -52707,7 +52704,7 @@
         <v>45486</v>
       </c>
       <c r="B1603" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1603" t="s">
         <v>174</v>
@@ -52884,7 +52881,7 @@
         <v>68</v>
       </c>
       <c r="C1609" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1609" s="4" t="s">
         <v>5</v>
@@ -52916,7 +52913,7 @@
         <v>68</v>
       </c>
       <c r="C1610" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F1610" t="s">
         <v>1</v>
@@ -52974,7 +52971,7 @@
         <v>68</v>
       </c>
       <c r="C1612" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F1612" t="s">
         <v>1</v>
@@ -53464,7 +53461,7 @@
         <v>50</v>
       </c>
       <c r="C1629" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1629" s="4" t="s">
         <v>5</v>
@@ -53496,7 +53493,7 @@
         <v>50</v>
       </c>
       <c r="C1630" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1630" t="s">
         <v>1</v>
@@ -54044,7 +54041,7 @@
         <v>38</v>
       </c>
       <c r="C1649" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F1649" t="s">
         <v>1</v>
@@ -54462,7 +54459,7 @@
         <v>107</v>
       </c>
       <c r="C1663" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1663" s="4" t="s">
         <v>5</v>
@@ -54494,7 +54491,7 @@
         <v>107</v>
       </c>
       <c r="C1664" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1664" s="4" t="s">
         <v>6</v>
@@ -54558,13 +54555,13 @@
         <v>146</v>
       </c>
       <c r="C1666" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1666" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1666" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1666" t="s">
         <v>0</v>
@@ -54622,7 +54619,7 @@
         <v>5</v>
       </c>
       <c r="E1668" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1668" t="s">
         <v>0</v>
@@ -55402,7 +55399,7 @@
         <v>30</v>
       </c>
       <c r="C1695" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1695" t="s">
         <v>1</v>
@@ -55428,7 +55425,7 @@
         <v>30</v>
       </c>
       <c r="C1696" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1696" s="4" t="s">
         <v>6</v>
@@ -55515,10 +55512,10 @@
         <v>45486</v>
       </c>
       <c r="B1699" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C1699" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1699" s="4" t="s">
         <v>6</v>
@@ -55547,10 +55544,10 @@
         <v>45486</v>
       </c>
       <c r="B1700" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C1700" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1700"/>
       <c r="F1700" t="s">
@@ -55757,7 +55754,7 @@
         <v>41</v>
       </c>
       <c r="C1707" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1707" s="4" t="s">
         <v>6</v>
@@ -55789,7 +55786,7 @@
         <v>41</v>
       </c>
       <c r="C1708" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1708" s="4" t="s">
         <v>5</v>
@@ -55934,7 +55931,7 @@
         <v>45487</v>
       </c>
       <c r="B1713" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1713" t="s">
         <v>192</v>
@@ -55960,7 +55957,7 @@
         <v>45487</v>
       </c>
       <c r="B1714" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1714" t="s">
         <v>192</v>
@@ -55995,7 +55992,7 @@
         <v>83</v>
       </c>
       <c r="C1715" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1715" s="4" t="s">
         <v>5</v>
@@ -56027,7 +56024,7 @@
         <v>83</v>
       </c>
       <c r="C1716" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F1716" t="s">
         <v>1</v>
@@ -56053,7 +56050,7 @@
         <v>83</v>
       </c>
       <c r="C1717" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1717" s="4" t="s">
         <v>5</v>
@@ -56085,7 +56082,7 @@
         <v>83</v>
       </c>
       <c r="C1718" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1718" t="s">
         <v>1</v>
@@ -57364,7 +57361,7 @@
         <v>45487</v>
       </c>
       <c r="B1762" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1762" t="s">
         <v>174</v>
@@ -57373,7 +57370,7 @@
         <v>6</v>
       </c>
       <c r="E1762" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1762" t="s">
         <v>0</v>
@@ -57573,7 +57570,7 @@
         <v>68</v>
       </c>
       <c r="C1769" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1769" s="4" t="s">
         <v>5</v>
@@ -57605,7 +57602,7 @@
         <v>68</v>
       </c>
       <c r="C1770" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F1770" t="s">
         <v>1</v>
@@ -58107,7 +58104,7 @@
         <v>71</v>
       </c>
       <c r="C1787" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1787" s="4" t="s">
         <v>5</v>
@@ -58139,7 +58136,7 @@
         <v>71</v>
       </c>
       <c r="C1788" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1788" t="s">
         <v>1</v>
@@ -58197,7 +58194,7 @@
         <v>71</v>
       </c>
       <c r="C1790" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1790" t="s">
         <v>1</v>
@@ -58345,7 +58342,7 @@
         <v>50</v>
       </c>
       <c r="C1795" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1795" t="s">
         <v>1</v>
@@ -58371,7 +58368,7 @@
         <v>50</v>
       </c>
       <c r="C1796" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1796" s="4" t="s">
         <v>5</v>
@@ -59343,7 +59340,7 @@
         <v>107</v>
       </c>
       <c r="C1829" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1829" t="s">
         <v>1</v>
@@ -59369,7 +59366,7 @@
         <v>107</v>
       </c>
       <c r="C1830" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1830" s="4" t="s">
         <v>6</v>
@@ -59401,7 +59398,7 @@
         <v>107</v>
       </c>
       <c r="C1831" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F1831" t="s">
         <v>1</v>
@@ -59575,7 +59572,7 @@
         <v>109</v>
       </c>
       <c r="C1837" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1837" t="s">
         <v>1</v>
@@ -59923,7 +59920,7 @@
         <v>30</v>
       </c>
       <c r="C1849" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F1849" t="s">
         <v>1</v>
@@ -59949,7 +59946,7 @@
         <v>30</v>
       </c>
       <c r="C1850" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D1850" s="4" t="s">
         <v>6</v>
@@ -59981,7 +59978,7 @@
         <v>30</v>
       </c>
       <c r="C1851" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1851" t="s">
         <v>1</v>
@@ -60007,7 +60004,7 @@
         <v>30</v>
       </c>
       <c r="C1852" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1852" s="4" t="s">
         <v>6</v>
